--- a/RUDN/Importance/Varible_muatal_class_in_Southern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Southern Europe.xlsx
@@ -14,65 +14,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Population, female</t>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
   </si>
   <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
@@ -178,24 +178,24 @@
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
@@ -226,64 +226,67 @@
     <t>Male population 65-69</t>
   </si>
   <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
+    <t>Employers, female (% of female employment)</t>
   </si>
   <si>
     <t>Age population, age 17, female, interpolated</t>
@@ -292,9 +295,6 @@
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -361,1114 +361,1120 @@
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
+    <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>Number of maternal deaths</t>
   </si>
   <si>
     <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
   </si>
   <si>
     <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
   </si>
   <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
   </si>
   <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+    <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
     <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Teenage mothers (% of women ages 15-19 who have had children or are currently pregnant)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
     <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Master's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Region_code</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B486"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2170,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6374278107536101</v>
+        <v>0.6352910586168579</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2202,7 +2208,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6215789209194584</v>
+        <v>0.6153959275051299</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2210,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6151372747420051</v>
+        <v>0.6147998928256757</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2274,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5932820355379373</v>
+        <v>0.5917196727377798</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2282,7 +2288,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5917196727377798</v>
+        <v>0.5853010023768017</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2290,7 +2296,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5840189510947504</v>
+        <v>0.5839831784628238</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2298,7 +2304,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5839831784628238</v>
+        <v>0.5801659686450331</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2306,7 +2312,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.5801659686450331</v>
+        <v>0.5796941563097293</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2314,7 +2320,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.5799061356883752</v>
+        <v>0.5782370674848125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2402,7 +2408,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5622830880090124</v>
+        <v>0.5617875151011091</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2410,7 +2416,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5617875151011091</v>
+        <v>0.5615540330765758</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2418,7 +2424,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5615540330765758</v>
+        <v>0.560131899952601</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2426,7 +2432,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.560131899952601</v>
+        <v>0.5599020957278951</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2434,7 +2440,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5599020957278951</v>
+        <v>0.5591113088794157</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2442,7 +2448,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5591113088794157</v>
+        <v>0.558640394466194</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2450,7 +2456,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.558640394466194</v>
+        <v>0.5581634368630897</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2458,7 +2464,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5581634368630897</v>
+        <v>0.5564474485232478</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2466,7 +2472,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5564474485232478</v>
+        <v>0.5563072877786794</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2474,7 +2480,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5563072877786794</v>
+        <v>0.5552010809307264</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2482,7 +2488,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5552010809307264</v>
+        <v>0.5535269893527885</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2490,7 +2496,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5535269893527885</v>
+        <v>0.5529823950581945</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2498,7 +2504,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5529823950581945</v>
+        <v>0.552949246887841</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2506,7 +2512,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.552949246887841</v>
+        <v>0.5510850580647035</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2514,7 +2520,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5505201092709127</v>
+        <v>0.5495667293509117</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2522,7 +2528,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.550372807352453</v>
+        <v>0.5493711202930736</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2530,7 +2536,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5495667293509117</v>
+        <v>0.5489175451683486</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2538,7 +2544,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5493711202930736</v>
+        <v>0.5477294749014283</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2546,7 +2552,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5477294749014283</v>
+        <v>0.5476986296782751</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2554,7 +2560,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5476986296782751</v>
+        <v>0.547484864227995</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2562,7 +2568,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5468762345014726</v>
+        <v>0.5473206244925777</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2570,7 +2576,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5463996259754254</v>
+        <v>0.5468762345014726</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2578,7 +2584,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.5461960546180078</v>
+        <v>0.5463996259754254</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2642,7 +2648,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.537655558145048</v>
+        <v>0.535946156435646</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2674,7 +2680,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.5306000765220298</v>
+        <v>0.5309639712476297</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2682,7 +2688,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5298955951792537</v>
+        <v>0.5306000765220298</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2762,7 +2768,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5195822645863246</v>
+        <v>0.5187367028731369</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2770,7 +2776,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5187367028731369</v>
+        <v>0.5168600212237167</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2778,7 +2784,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5168600212237167</v>
+        <v>0.5159396907368743</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2818,7 +2824,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5119382971069977</v>
+        <v>0.5115207735767766</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2826,7 +2832,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5115207735767766</v>
+        <v>0.5112531485212555</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2834,7 +2840,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5114163772966736</v>
+        <v>0.5098416860521009</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2842,7 +2848,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5112531485212555</v>
+        <v>0.5078807716348315</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2850,7 +2856,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5098416860521009</v>
+        <v>0.5045705521816175</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2858,7 +2864,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5047922105098912</v>
+        <v>0.5000900505793116</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2866,7 +2872,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5000900505793116</v>
+        <v>0.4996103234314524</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2874,7 +2880,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.4985597992113593</v>
+        <v>0.4956112227831759</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2882,7 +2888,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.4956112227831759</v>
+        <v>0.4910811667327271</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2890,7 +2896,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4814533956124809</v>
+        <v>0.4756041465260998</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2898,7 +2904,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4712078051830173</v>
+        <v>0.4748711107657035</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2906,7 +2912,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.468721766086027</v>
+        <v>0.4703862358039022</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2914,7 +2920,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4649343144189673</v>
+        <v>0.468721766086027</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2922,7 +2928,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4635767232534396</v>
+        <v>0.4655725414681473</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2930,7 +2936,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4624802528979193</v>
+        <v>0.464651335289834</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2938,7 +2944,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.457892647189766</v>
+        <v>0.4644266701769084</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2946,7 +2952,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4558943070616519</v>
+        <v>0.4625083471850635</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2954,7 +2960,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4529445411741868</v>
+        <v>0.457892647189766</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2962,7 +2968,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4491453233241125</v>
+        <v>0.4529445411741868</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2970,7 +2976,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4465389091236196</v>
+        <v>0.4491453233241125</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3018,7 +3024,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4328389629963554</v>
+        <v>0.4324512211579148</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3026,7 +3032,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4271207549508194</v>
+        <v>0.4290574641037745</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3034,7 +3040,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4212749109468643</v>
+        <v>0.4271207549508194</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3058,7 +3064,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4140264956734727</v>
+        <v>0.4158017980778486</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3066,7 +3072,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4120268888389058</v>
+        <v>0.4153811963993035</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3074,7 +3080,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4119721218217562</v>
+        <v>0.4140264956734727</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3082,7 +3088,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4114532511252043</v>
+        <v>0.4126096394216563</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3090,7 +3096,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4111168265099336</v>
+        <v>0.4119721218217562</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3098,7 +3104,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4106836191940382</v>
+        <v>0.4111168265099336</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3106,7 +3112,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.409134345065411</v>
+        <v>0.4102134043321011</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3114,7 +3120,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.4088404494418425</v>
+        <v>0.4094595499145874</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3122,7 +3128,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4073425470145002</v>
+        <v>0.4083723516276627</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3130,7 +3136,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.4064141693692072</v>
+        <v>0.4068950491792314</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3138,7 +3144,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4057353915560045</v>
+        <v>0.406229490624529</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3146,7 +3152,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4052924850766673</v>
+        <v>0.4057353915560045</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3154,7 +3160,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.4020434397320338</v>
+        <v>0.4017229462623981</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3162,7 +3168,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.4017229462623981</v>
+        <v>0.400896606914714</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3170,7 +3176,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4014307949489022</v>
+        <v>0.4004977002658072</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3186,7 +3192,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.3851893066255387</v>
+        <v>0.3921150928447386</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3194,7 +3200,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3849322472003542</v>
+        <v>0.386342216098118</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3202,7 +3208,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3841808149271355</v>
+        <v>0.3833700629458625</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3210,7 +3216,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3840658975351834</v>
+        <v>0.3823344189402864</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3218,7 +3224,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3833700629458625</v>
+        <v>0.3821147484091119</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3226,7 +3232,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3823344189402864</v>
+        <v>0.3816753900973435</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3234,7 +3240,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3818595364353359</v>
+        <v>0.379708806969226</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3242,7 +3248,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.3768412092844267</v>
+        <v>0.3796724402861356</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3250,7 +3256,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3765573337406538</v>
+        <v>0.3789105623325155</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3258,7 +3264,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3740960036718031</v>
+        <v>0.3770524948640086</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3266,7 +3272,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3728234904250503</v>
+        <v>0.3767287856650177</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3274,7 +3280,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3715941607853448</v>
+        <v>0.3759405973732091</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3282,7 +3288,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3708688849120199</v>
+        <v>0.3740960036718031</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3290,7 +3296,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3706909993030165</v>
+        <v>0.3737145321007629</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3298,7 +3304,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3686326663952071</v>
+        <v>0.3708311137940457</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3306,7 +3312,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.3675817024459633</v>
+        <v>0.3706909993030165</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3314,7 +3320,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3675191759411292</v>
+        <v>0.3691181115220423</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3322,7 +3328,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3672789532471552</v>
+        <v>0.3655839139097135</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3330,7 +3336,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3656075725872181</v>
+        <v>0.3603499782022204</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3338,7 +3344,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3638802311964151</v>
+        <v>0.3581324859316999</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3346,7 +3352,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3573850714288538</v>
+        <v>0.3567936497317923</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3354,7 +3360,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3567936497317923</v>
+        <v>0.3557116253758903</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3362,7 +3368,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3566317120305096</v>
+        <v>0.3540638723415948</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3370,7 +3376,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3557116253758903</v>
+        <v>0.3534511570654182</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3378,7 +3384,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3533556194661593</v>
+        <v>0.3533625437556509</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3386,7 +3392,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3532430787926975</v>
+        <v>0.3532432539732624</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3394,7 +3400,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3516910836233016</v>
+        <v>0.3532430787926975</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3402,7 +3408,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.350509867585667</v>
+        <v>0.3527143022703054</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3410,7 +3416,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3482491653249649</v>
+        <v>0.3510730263634649</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3418,7 +3424,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.345185447682627</v>
+        <v>0.3507283990541985</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3426,7 +3432,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3437287543424496</v>
+        <v>0.3496416437296828</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3434,7 +3440,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.343126347490043</v>
+        <v>0.3479449111745567</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3442,7 +3448,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3418992094536655</v>
+        <v>0.3440695555845072</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3450,7 +3456,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3418125844441477</v>
+        <v>0.3434408682089753</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3458,7 +3464,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3418125844441477</v>
+        <v>0.3433144962358838</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3466,7 +3472,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.341358255261724</v>
+        <v>0.343126347490043</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3474,7 +3480,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3389624951890209</v>
+        <v>0.3427993889143963</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3482,7 +3488,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3384348620378845</v>
+        <v>0.3424896418335408</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3490,7 +3496,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3372466724680641</v>
+        <v>0.3422656907984079</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3498,7 +3504,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3367336153478764</v>
+        <v>0.3418125844441477</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3506,7 +3512,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3367330626108092</v>
+        <v>0.3418125844441477</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3514,7 +3520,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3365616115071075</v>
+        <v>0.3416334353599613</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3522,7 +3528,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3360217051334113</v>
+        <v>0.341358255261724</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3530,7 +3536,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3359178782839627</v>
+        <v>0.3372466724680641</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3538,7 +3544,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3356828142970754</v>
+        <v>0.3368325784384478</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3546,7 +3552,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.334824595646674</v>
+        <v>0.3367330626108092</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3554,7 +3560,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3340657843428443</v>
+        <v>0.3359178782839627</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3562,7 +3568,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.333629443303489</v>
+        <v>0.334824595646674</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3570,7 +3576,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3312535228448319</v>
+        <v>0.3345239422459394</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3602,7 +3608,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3298821697617615</v>
+        <v>0.3305667053348125</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3610,7 +3616,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3281404629238198</v>
+        <v>0.3298821697617615</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3618,7 +3624,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3276416223113094</v>
+        <v>0.3285487909942868</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3626,7 +3632,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3274692414848921</v>
+        <v>0.3284392177465008</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3634,7 +3640,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3267714676754736</v>
+        <v>0.3281404629238198</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3642,7 +3648,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.323715592864013</v>
+        <v>0.3276416223113094</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3650,7 +3656,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3235778892807968</v>
+        <v>0.3274692414848921</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3658,7 +3664,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3225712185833434</v>
+        <v>0.3261227791959889</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3666,7 +3672,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.322553437494056</v>
+        <v>0.3259916258764792</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3674,7 +3680,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3222730406707546</v>
+        <v>0.3257768034371202</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3682,7 +3688,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3196214006395079</v>
+        <v>0.3247498211601381</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3690,7 +3696,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3190581286262961</v>
+        <v>0.3237626571243282</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3698,7 +3704,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3186216188780895</v>
+        <v>0.3235778892807968</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3706,7 +3712,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3179311834609186</v>
+        <v>0.3234846877362056</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3714,7 +3720,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3177639829242997</v>
+        <v>0.3230041988819452</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3722,7 +3728,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3151606603564665</v>
+        <v>0.3208685733920531</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3730,7 +3736,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3148161371003215</v>
+        <v>0.3190581286262961</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3738,7 +3744,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3140741700922771</v>
+        <v>0.3165925740529889</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3746,7 +3752,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3126288396802284</v>
+        <v>0.3148161371003215</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3754,7 +3760,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3107279792460864</v>
+        <v>0.3141195732306787</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3762,7 +3768,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3106827887571553</v>
+        <v>0.3120814465084545</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3770,7 +3776,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3104801708165421</v>
+        <v>0.311093112194883</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3778,7 +3784,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3101050533827761</v>
+        <v>0.3104801708165421</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3794,7 +3800,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3089144329293845</v>
+        <v>0.3079728621763456</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3802,7 +3808,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3079728621763456</v>
+        <v>0.3079654816555444</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3810,7 +3816,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3075006361476949</v>
+        <v>0.3043748854677215</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3818,7 +3824,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3043748854677215</v>
+        <v>0.3030816746252365</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3826,7 +3832,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3042218512754595</v>
+        <v>0.3010064359034943</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3834,7 +3840,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3038544207033869</v>
+        <v>0.2998919596900931</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3842,7 +3848,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3015216513441692</v>
+        <v>0.2980658995166987</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3850,7 +3856,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3000242215399691</v>
+        <v>0.2970400290196744</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3858,7 +3864,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2981061726338952</v>
+        <v>0.2947889598481266</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3866,7 +3872,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.2970456010528646</v>
+        <v>0.2942235092556673</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3874,7 +3880,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2961865555700474</v>
+        <v>0.2941922540870001</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3882,7 +3888,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2959665654462111</v>
+        <v>0.2936255480905638</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3890,7 +3896,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2947889598481266</v>
+        <v>0.2933062848135481</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3898,7 +3904,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2942235092556673</v>
+        <v>0.2929216936513392</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3906,7 +3912,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2941922540870001</v>
+        <v>0.2917442975521498</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3914,7 +3920,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2936255480905638</v>
+        <v>0.2906664168768316</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3922,7 +3928,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2934896643758949</v>
+        <v>0.2895116575543086</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3930,7 +3936,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.292514168486194</v>
+        <v>0.2894754901757766</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3938,7 +3944,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2909307154867184</v>
+        <v>0.2893249601535508</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3946,7 +3952,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2893249601535508</v>
+        <v>0.2878301835400328</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3954,7 +3960,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2876713099694432</v>
+        <v>0.2871714476969003</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3962,7 +3968,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2867231591912185</v>
+        <v>0.2864757235335755</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3970,7 +3976,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2864832520564617</v>
+        <v>0.2863235870362235</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3978,7 +3984,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2863235870362235</v>
+        <v>0.2858611995807478</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3986,7 +3992,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2849978307352163</v>
+        <v>0.2846507010901884</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3994,7 +4000,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2836654406450863</v>
+        <v>0.2846074289613236</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4002,7 +4008,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2831356820844695</v>
+        <v>0.2841246669135531</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4010,7 +4016,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2817977642032099</v>
+        <v>0.2836654406450863</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4018,7 +4024,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2811095563584329</v>
+        <v>0.2834046393547298</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4026,7 +4032,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2809457005491112</v>
+        <v>0.2826540872842975</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4034,7 +4040,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2795975178271635</v>
+        <v>0.282280658278969</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4050,7 +4056,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2775712499652252</v>
+        <v>0.2785667512491208</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4058,7 +4064,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.276891915395755</v>
+        <v>0.2781610269675956</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4066,7 +4072,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2768298386737376</v>
+        <v>0.2775712499652252</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4074,7 +4080,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2764118749728726</v>
+        <v>0.2769873063362722</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4082,7 +4088,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2757131167953759</v>
+        <v>0.2768298386737376</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4090,7 +4096,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2738781633380125</v>
+        <v>0.2758191989384231</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4098,7 +4104,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2723970997338265</v>
+        <v>0.2738781633380125</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4106,7 +4112,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2720470188402737</v>
+        <v>0.2723970997338265</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4114,7 +4120,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2710116325605811</v>
+        <v>0.2707028156632305</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4122,7 +4128,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2710043893122416</v>
+        <v>0.2702059673544031</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4130,7 +4136,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2702059673544031</v>
+        <v>0.2690606983582298</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4138,7 +4144,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2692450168481972</v>
+        <v>0.2683831133398071</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4146,7 +4152,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2679569866551961</v>
+        <v>0.2674230647873257</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4154,7 +4160,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2678171863352936</v>
+        <v>0.2660494737571952</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4162,7 +4168,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2677870336744612</v>
+        <v>0.2657761200520485</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4170,7 +4176,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.267446029714137</v>
+        <v>0.2657761200520485</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4178,7 +4184,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2658892480639969</v>
+        <v>0.2656623926147024</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4186,7 +4192,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2657761200520485</v>
+        <v>0.2626149608861588</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4194,7 +4200,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2657761200520485</v>
+        <v>0.261249652203184</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4202,7 +4208,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2656623926147024</v>
+        <v>0.2607568321595546</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4210,7 +4216,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2654222824911898</v>
+        <v>0.2605576552174032</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4218,7 +4224,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2653967791071938</v>
+        <v>0.260512554235323</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4226,7 +4232,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2636287402711281</v>
+        <v>0.2601276346689085</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4234,7 +4240,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.263408177440325</v>
+        <v>0.2588886974600479</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4242,7 +4248,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2623814006110463</v>
+        <v>0.2578681050202618</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4250,7 +4256,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2613303416272947</v>
+        <v>0.2577968989938892</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4258,7 +4264,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2605576552174032</v>
+        <v>0.2577301044579563</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4266,7 +4272,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2552090966232803</v>
+        <v>0.2557432846574681</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4274,7 +4280,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2531630904311977</v>
+        <v>0.2557350377146832</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4282,7 +4288,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2524876154448747</v>
+        <v>0.2551966338108946</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4290,7 +4296,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2517697802233119</v>
+        <v>0.251350046515123</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4298,7 +4304,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2455745442605486</v>
+        <v>0.2499840427795308</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4306,7 +4312,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2446764559830246</v>
+        <v>0.2491805417610451</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4314,7 +4320,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2430046882619517</v>
+        <v>0.2490818885134574</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4322,7 +4328,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2421396440673946</v>
+        <v>0.2489484551749452</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4330,7 +4336,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2408019929456182</v>
+        <v>0.2442985481458744</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4338,7 +4344,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2405594877116446</v>
+        <v>0.2439621773841305</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4346,7 +4352,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.240535342466911</v>
+        <v>0.2430046882619517</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4354,7 +4360,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2398119216356882</v>
+        <v>0.2421396440673946</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4362,7 +4368,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.239287146323353</v>
+        <v>0.2419486737724401</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4370,7 +4376,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2388537695367337</v>
+        <v>0.2411035216691402</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4378,7 +4384,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2388194845858949</v>
+        <v>0.2403915941797126</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4386,7 +4392,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2381196277058073</v>
+        <v>0.239287146323353</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4394,7 +4400,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2379193114214921</v>
+        <v>0.2392854481844495</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4402,7 +4408,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2374857233480934</v>
+        <v>0.237959848089053</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4410,7 +4416,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.2346812387694739</v>
+        <v>0.2352150812500597</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4418,7 +4424,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.234375407998056</v>
+        <v>0.2346812387694739</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4426,7 +4432,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2341019030970584</v>
+        <v>0.23386375935406</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4434,7 +4440,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.2339068365878396</v>
+        <v>0.2337156103785658</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4442,7 +4448,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.23386375935406</v>
+        <v>0.2322260330884505</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4450,7 +4456,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.2322260330884505</v>
+        <v>0.2321732634560267</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4458,7 +4464,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2290177384255017</v>
+        <v>0.2316319805529685</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4466,7 +4472,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2276588937731547</v>
+        <v>0.231589274772239</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4474,7 +4480,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2276506925598591</v>
+        <v>0.2315891539176922</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4482,7 +4488,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2263910854082274</v>
+        <v>0.2313163397099649</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4490,7 +4496,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2263593557825891</v>
+        <v>0.2296476380412633</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4498,7 +4504,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2261013061818093</v>
+        <v>0.2279134113353647</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4506,7 +4512,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2253760205410971</v>
+        <v>0.2263593557825891</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4514,7 +4520,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.225245619725265</v>
+        <v>0.2257423947694546</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4530,7 +4536,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2228461851142924</v>
+        <v>0.2222128143862629</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4538,7 +4544,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2217982480086629</v>
+        <v>0.2207029757595445</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4546,7 +4552,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2207029757595445</v>
+        <v>0.2196385925976083</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4554,7 +4560,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2196385925976083</v>
+        <v>0.2195439044959839</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4562,7 +4568,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2180196903839515</v>
+        <v>0.2172109734091827</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4570,7 +4576,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2172109734091827</v>
+        <v>0.2126695535717105</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4578,7 +4584,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2161648110103283</v>
+        <v>0.2079995467099616</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4586,7 +4592,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2131412277848532</v>
+        <v>0.207682383152497</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4594,7 +4600,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2102349262780934</v>
+        <v>0.205643723016371</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4602,7 +4608,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.207682383152497</v>
+        <v>0.2049618873512082</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4610,7 +4616,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2074653586757735</v>
+        <v>0.2046993486379427</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4618,7 +4624,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.2059072206196619</v>
+        <v>0.2029837879890632</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4626,7 +4632,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2046038134714603</v>
+        <v>0.2028704761953439</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4642,7 +4648,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2028543377781364</v>
+        <v>0.2014270709052512</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4650,7 +4656,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2014270709052512</v>
+        <v>0.2007009514305969</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4658,7 +4664,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1986681818497502</v>
+        <v>0.2004103062262388</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4666,7 +4672,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1983766093155308</v>
+        <v>0.1996384633488781</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4674,7 +4680,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1965584559811275</v>
+        <v>0.1990085222985989</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4682,7 +4688,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1963095082449469</v>
+        <v>0.1983766093155308</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4690,7 +4696,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.196267991228406</v>
+        <v>0.1963095082449469</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4698,7 +4704,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1961185303859747</v>
+        <v>0.1960497084071162</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4706,7 +4712,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1960430368246293</v>
+        <v>0.1951977022178357</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4714,7 +4720,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1940441261207031</v>
+        <v>0.1925290800690975</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4738,7 +4744,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1903978062816092</v>
+        <v>0.1906841204637049</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4746,7 +4752,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1873486023175013</v>
+        <v>0.1883260222287446</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4754,7 +4760,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1853004496397341</v>
+        <v>0.1882057352373279</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4762,7 +4768,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1848059025708539</v>
+        <v>0.1873486023175013</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4770,7 +4776,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1832330593369529</v>
+        <v>0.1869504637865778</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4778,7 +4784,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1830288413279912</v>
+        <v>0.1848059025708539</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4786,7 +4792,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1808452332890969</v>
+        <v>0.1846803267561263</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4794,7 +4800,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1798056506353201</v>
+        <v>0.1837237445861144</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4802,7 +4808,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.1780324880768513</v>
+        <v>0.1833017018198091</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4810,7 +4816,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.1769212406026144</v>
+        <v>0.1809281316577773</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4818,7 +4824,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.1765294409610096</v>
+        <v>0.1780324880768513</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4834,7 +4840,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.17373337064966</v>
+        <v>0.1745098506882636</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4842,7 +4848,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.172466084642555</v>
+        <v>0.1743247575751665</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4850,7 +4856,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1692563546985058</v>
+        <v>0.172466084642555</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4858,7 +4864,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1685944812830753</v>
+        <v>0.1724480789469554</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4866,7 +4872,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1679920543494891</v>
+        <v>0.169592476572122</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4874,7 +4880,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1669673239285923</v>
+        <v>0.1688749398524572</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4882,7 +4888,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1631133520641515</v>
+        <v>0.1687330914821166</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4890,7 +4896,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1622791400728769</v>
+        <v>0.1682138616686126</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4898,7 +4904,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1615038752271447</v>
+        <v>0.1672306900400715</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4906,7 +4912,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1609910708553319</v>
+        <v>0.1653031023591056</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4914,7 +4920,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1605272718338404</v>
+        <v>0.1641743725963258</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4922,7 +4928,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1577983590087737</v>
+        <v>0.1634479575994516</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4930,7 +4936,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1559594732412806</v>
+        <v>0.1615038752271447</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4938,7 +4944,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1521731793451326</v>
+        <v>0.1605272718338404</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4946,7 +4952,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1502070168975955</v>
+        <v>0.1590991142435016</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4954,7 +4960,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1464597312919904</v>
+        <v>0.1564415490263982</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4962,7 +4968,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1435241471474422</v>
+        <v>0.153447171721723</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4970,7 +4976,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1416013892908763</v>
+        <v>0.1503408060889198</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4978,7 +4984,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1400392415495788</v>
+        <v>0.1475947192604119</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4986,7 +4992,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1396423277963621</v>
+        <v>0.1455654530258677</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4994,7 +5000,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1382251589350083</v>
+        <v>0.1446401978302507</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5002,7 +5008,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1373906684087756</v>
+        <v>0.1435241471474422</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5010,7 +5016,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1369586751883207</v>
+        <v>0.1400392415495788</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5018,7 +5024,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1358801596949373</v>
+        <v>0.1373906684087756</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5026,7 +5032,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1348886743202429</v>
+        <v>0.136747282454263</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5034,7 +5040,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1345615263969413</v>
+        <v>0.1360955258523209</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5042,7 +5048,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1335868351543807</v>
+        <v>0.1345615263969413</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5050,7 +5056,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.132369499496517</v>
+        <v>0.129090030060838</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5058,7 +5064,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1319402396089404</v>
+        <v>0.1275845413716115</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5066,7 +5072,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1304849959376411</v>
+        <v>0.1261887471107002</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5074,7 +5080,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1282196277518675</v>
+        <v>0.1256276365145141</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5082,7 +5088,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1278125506575809</v>
+        <v>0.125284509756467</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5090,7 +5096,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.127465745740297</v>
+        <v>0.1229135500855032</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5098,7 +5104,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1261887471107002</v>
+        <v>0.1216957236098506</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5106,7 +5112,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.125284509756467</v>
+        <v>0.120077746288161</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5114,7 +5120,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.121986444052431</v>
+        <v>0.1196763429265313</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5122,7 +5128,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1216957236098506</v>
+        <v>0.1193509898886953</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5130,7 +5136,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1154237464418535</v>
+        <v>0.1158377555097088</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5138,7 +5144,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.1137915387617034</v>
+        <v>0.1145327066597241</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5146,7 +5152,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.1135596205392659</v>
+        <v>0.1135011338186795</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5154,7 +5160,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1129676741303793</v>
+        <v>0.1129508751424353</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5162,7 +5168,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.110702529125519</v>
+        <v>0.1120408018973749</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5170,7 +5176,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.1089916112484062</v>
+        <v>0.1113852533687689</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5178,7 +5184,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1089596378707474</v>
+        <v>0.1100079245847605</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5186,7 +5192,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.1081565478285011</v>
+        <v>0.1054602939271529</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5194,7 +5200,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.1073075570756643</v>
+        <v>0.1053728998525452</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5202,7 +5208,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1053728998525452</v>
+        <v>0.1000719508015964</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5210,7 +5216,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1024932029824639</v>
+        <v>0.1000253729902236</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5218,7 +5224,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.09919405352202615</v>
+        <v>0.09966032538997083</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5226,7 +5232,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.09809361201240963</v>
+        <v>0.09915372096160135</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5234,7 +5240,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.09542662454621431</v>
+        <v>0.09802826972466994</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5242,7 +5248,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.09263291298099485</v>
+        <v>0.09672789207597399</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5250,7 +5256,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.09169873299761355</v>
+        <v>0.09486561867218746</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5258,7 +5264,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.0907770078528074</v>
+        <v>0.09482233930198469</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5266,7 +5272,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.08858962970389062</v>
+        <v>0.09462534249493215</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5274,7 +5280,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.08645720881402763</v>
+        <v>0.09050797098130547</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5282,7 +5288,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.0862632560398473</v>
+        <v>0.08970841570672672</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5290,7 +5296,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.0855477533127047</v>
+        <v>0.08923844669886138</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5298,7 +5304,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.08306036552078022</v>
+        <v>0.08636543829700694</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5306,7 +5312,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.08246839161149855</v>
+        <v>0.0855477533127047</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5314,7 +5320,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.07700465823114833</v>
+        <v>0.08407692374887699</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5322,7 +5328,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.07612401221847676</v>
+        <v>0.08370005573164807</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5330,7 +5336,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.07552335632926233</v>
+        <v>0.08364118223554962</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5338,7 +5344,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.07474125407666898</v>
+        <v>0.08246839161149855</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5346,7 +5352,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.07369142249799099</v>
+        <v>0.08096241895167977</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5354,7 +5360,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.07359490220916309</v>
+        <v>0.08086986353866132</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5362,7 +5368,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.07239263667228646</v>
+        <v>0.08026066710456581</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5370,7 +5376,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.07102236158024211</v>
+        <v>0.07827029898014803</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5378,7 +5384,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.06909692511503218</v>
+        <v>0.07778641153359089</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5386,7 +5392,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.06831778972051206</v>
+        <v>0.07474437595479078</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5394,7 +5400,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.068254691395923</v>
+        <v>0.07165328079638789</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5402,7 +5408,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.06710209836059011</v>
+        <v>0.06728447474488952</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5410,7 +5416,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.06697153458466443</v>
+        <v>0.06345098106411062</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5418,7 +5424,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.06505703930985129</v>
+        <v>0.06282206171402183</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5426,7 +5432,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.06257030969046506</v>
+        <v>0.06029926352122095</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5434,7 +5440,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.06198413050223772</v>
+        <v>0.06013205109002473</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5442,7 +5448,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.06108540054524991</v>
+        <v>0.05779889004720062</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5450,7 +5456,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.06068584830791512</v>
+        <v>0.05726024599894108</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5458,7 +5464,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.06029926352122095</v>
+        <v>0.05712375865939978</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5466,7 +5472,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.060133866148252</v>
+        <v>0.05582905536129501</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5474,7 +5480,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.0597347664420258</v>
+        <v>0.05441604174368653</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5482,7 +5488,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.05754197104028158</v>
+        <v>0.05406898652940129</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5490,7 +5496,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.05686713211600858</v>
+        <v>0.05386335170838219</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5498,7 +5504,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.05571317567359046</v>
+        <v>0.05005934832486547</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5506,7 +5512,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.05479855237119602</v>
+        <v>0.05005934832486547</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5514,7 +5520,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.05168042818833873</v>
+        <v>0.04739898968317169</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5522,7 +5528,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.05005934832486547</v>
+        <v>0.04499132266860451</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5530,7 +5536,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.05005934832486547</v>
+        <v>0.04325360627114772</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5538,7 +5544,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.04616821564786111</v>
+        <v>0.04073390113549236</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5546,7 +5552,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.04606104633820318</v>
+        <v>0.03910885762696448</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5554,7 +5560,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.04482343500071706</v>
+        <v>0.03739487342905568</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5562,7 +5568,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.04298139178796045</v>
+        <v>0.03260681370976237</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5570,7 +5576,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.04073390113549236</v>
+        <v>0.03119342903845923</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5578,7 +5584,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.04028254067644377</v>
+        <v>0.03114649151980231</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5586,7 +5592,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.03754923491349582</v>
+        <v>0.02940397917208637</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5594,7 +5600,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.03713964628275312</v>
+        <v>0.0292696537936552</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5602,7 +5608,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.0361119969377961</v>
+        <v>0.02537033213787354</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5610,7 +5616,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.03608179209989926</v>
+        <v>0.02522508986504146</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5618,7 +5624,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.03308439775635086</v>
+        <v>0.02213649212509039</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5626,7 +5632,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.03303095593254679</v>
+        <v>0.02047057555542464</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5634,7 +5640,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.02938147674573743</v>
+        <v>0.0200993948675019</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5642,7 +5648,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.02812012863766999</v>
+        <v>0.01932262534073237</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5650,7 +5656,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.02656725142020022</v>
+        <v>0.01714166360094715</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5658,7 +5664,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.02314863373404852</v>
+        <v>0.01335677850950101</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5666,7 +5672,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.02223441199418374</v>
+        <v>0.01213243305438638</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5674,7 +5680,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.0222172734276882</v>
+        <v>0.01144423236618541</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5682,7 +5688,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.01867371050912525</v>
+        <v>0.01115840708036031</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5690,7 +5696,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.01607538918908458</v>
+        <v>0.01008143845214349</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5698,7 +5704,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.01477059170141626</v>
+        <v>0.009405987238068292</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5706,7 +5712,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.01063138780334105</v>
+        <v>0.007361667013823903</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5714,7 +5720,23 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.000791530367329818</v>
+        <v>0.006033487588924968</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B487">
+        <v>0.003450672866315063</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <v>0.001105639335284847</v>
       </c>
     </row>
   </sheetData>
